--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -302,7 +302,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -720,6 +720,10 @@
   </si>
   <si>
     <t>Observation.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1998,39 +2002,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.16015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -4189,13 +4193,13 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4246,7 +4250,7 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4270,7 +4274,7 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
@@ -4281,7 +4285,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4310,7 +4314,7 @@
         <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>140</v>
@@ -4351,10 +4355,10 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>82</v>
@@ -4363,7 +4367,7 @@
         <v>199</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4387,7 +4391,7 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4398,7 +4402,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4421,16 +4425,16 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4480,7 +4484,7 @@
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4489,7 +4493,7 @@
         <v>92</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>103</v>
@@ -4515,7 +4519,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4541,13 +4545,13 @@
         <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4576,10 +4580,10 @@
         <v>211</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>82</v>
@@ -4597,7 +4601,7 @@
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4632,7 +4636,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4658,13 +4662,13 @@
         <v>149</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4714,7 +4718,7 @@
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4738,7 +4742,7 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4772,16 +4776,16 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4831,7 +4835,7 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4866,7 +4870,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4889,16 +4893,16 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4948,7 +4952,7 @@
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4969,10 +4973,10 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>222</v>
@@ -4983,11 +4987,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5006,19 +5010,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>82</v>
@@ -5067,7 +5071,7 @@
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5082,19 +5086,19 @@
         <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5102,14 +5106,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>92</v>
@@ -5127,19 +5131,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>82</v>
@@ -5188,7 +5192,7 @@
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5203,19 +5207,19 @@
         <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5223,7 +5227,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5246,13 +5250,13 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5303,7 +5307,7 @@
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5327,7 +5331,7 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
@@ -5338,7 +5342,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5361,13 +5365,13 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5406,10 +5410,10 @@
         <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>82</v>
@@ -5418,7 +5422,7 @@
         <v>199</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5442,7 +5446,7 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
@@ -5453,7 +5457,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5476,16 +5480,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5535,7 +5539,7 @@
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5556,13 +5560,13 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5570,7 +5574,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5593,17 +5597,17 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>82</v>
@@ -5652,7 +5656,7 @@
         <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5667,19 +5671,19 @@
         <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5687,14 +5691,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>92</v>
@@ -5712,19 +5716,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>82</v>
@@ -5761,17 +5765,17 @@
         <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5780,7 +5784,7 @@
         <v>92</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>103</v>
@@ -5789,27 +5793,27 @@
         <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>82</v>
@@ -5831,19 +5835,19 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>82</v>
@@ -5892,7 +5896,7 @@
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5901,7 +5905,7 @@
         <v>92</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>103</v>
@@ -5910,27 +5914,27 @@
         <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>82</v>
@@ -5952,19 +5956,19 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>82</v>
@@ -6013,7 +6017,7 @@
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6025,7 +6029,7 @@
         <v>200</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6034,10 +6038,10 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6048,10 +6052,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>82</v>
@@ -6073,19 +6077,19 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>82</v>
@@ -6134,7 +6138,7 @@
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6146,7 +6150,7 @@
         <v>200</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6158,7 +6162,7 @@
         <v>134</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6169,10 +6173,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>82</v>
@@ -6194,19 +6198,19 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>82</v>
@@ -6255,7 +6259,7 @@
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6264,7 +6268,7 @@
         <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6273,27 +6277,27 @@
         <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>82</v>
@@ -6315,19 +6319,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>82</v>
@@ -6376,7 +6380,7 @@
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6385,7 +6389,7 @@
         <v>92</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6394,27 +6398,27 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>82</v>
@@ -6436,19 +6440,19 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>82</v>
@@ -6497,7 +6501,7 @@
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6506,7 +6510,7 @@
         <v>92</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>103</v>
@@ -6515,27 +6519,27 @@
         <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>82</v>
@@ -6557,19 +6561,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>82</v>
@@ -6618,7 +6622,7 @@
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6630,7 +6634,7 @@
         <v>200</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6639,10 +6643,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -6653,10 +6657,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>82</v>
@@ -6690,7 +6694,7 @@
         <v>205</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>82</v>
@@ -6719,7 +6723,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>82</v>
@@ -6737,7 +6741,7 @@
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6772,7 +6776,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6795,19 +6799,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>82</v>
@@ -6835,10 +6839,10 @@
         <v>211</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>82</v>
@@ -6856,7 +6860,7 @@
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6865,7 +6869,7 @@
         <v>92</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>103</v>
@@ -6880,7 +6884,7 @@
         <v>134</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -6891,7 +6895,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6926,7 +6930,7 @@
         <v>205</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>82</v>
@@ -6954,10 +6958,10 @@
         <v>211</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>82</v>
@@ -6975,7 +6979,7 @@
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -7010,7 +7014,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7033,19 +7037,19 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>82</v>
@@ -7094,7 +7098,7 @@
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7115,10 +7119,10 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -7129,7 +7133,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7152,16 +7156,16 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7187,13 +7191,13 @@
         <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>82</v>
@@ -7211,7 +7215,7 @@
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7229,24 +7233,24 @@
         <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7269,19 +7273,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>82</v>
@@ -7310,7 +7314,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>82</v>
@@ -7328,7 +7332,7 @@
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7349,10 +7353,10 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7363,7 +7367,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7386,16 +7390,16 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7445,7 +7449,7 @@
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7457,7 +7461,7 @@
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>82</v>
@@ -7469,7 +7473,7 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7480,7 +7484,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7503,16 +7507,16 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7562,7 +7566,7 @@
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7580,24 +7584,24 @@
         <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7620,19 +7624,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>82</v>
@@ -7681,7 +7685,7 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7693,7 +7697,7 @@
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7702,10 +7706,10 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -7716,7 +7720,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7739,13 +7743,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7796,7 +7800,7 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7820,7 +7824,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -7831,7 +7835,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7860,7 +7864,7 @@
         <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>140</v>
@@ -7913,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7937,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -7948,11 +7952,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7974,10 +7978,10 @@
         <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>140</v>
@@ -8032,7 +8036,7 @@
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8067,7 +8071,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8090,13 +8094,13 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8147,7 +8151,7 @@
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8156,7 +8160,7 @@
         <v>92</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>103</v>
@@ -8168,10 +8172,10 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
@@ -8182,7 +8186,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8205,13 +8209,13 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8262,7 +8266,7 @@
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8271,7 +8275,7 @@
         <v>92</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>103</v>
@@ -8283,10 +8287,10 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -8297,7 +8301,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8320,19 +8324,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>82</v>
@@ -8360,10 +8364,10 @@
         <v>115</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>82</v>
@@ -8381,7 +8385,7 @@
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8399,13 +8403,13 @@
         <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8416,7 +8420,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8439,19 +8443,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>82</v>
@@ -8476,13 +8480,13 @@
         <v>82</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>82</v>
@@ -8500,7 +8504,7 @@
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8518,13 +8522,13 @@
         <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8535,7 +8539,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8558,17 +8562,17 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>82</v>
@@ -8617,7 +8621,7 @@
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8641,7 +8645,7 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -8652,7 +8656,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8675,13 +8679,13 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8732,7 +8736,7 @@
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8753,10 +8757,10 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -8767,7 +8771,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8790,16 +8794,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8849,7 +8853,7 @@
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8870,10 +8874,10 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -8884,7 +8888,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8907,13 +8911,13 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8964,7 +8968,7 @@
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8988,7 +8992,7 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -8999,7 +9003,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9028,7 +9032,7 @@
         <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>140</v>
@@ -9069,10 +9073,10 @@
         <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>82</v>
@@ -9081,7 +9085,7 @@
         <v>199</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9105,7 +9109,7 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9116,7 +9120,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9139,16 +9143,16 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9198,7 +9202,7 @@
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9207,7 +9211,7 @@
         <v>92</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>103</v>
@@ -9233,7 +9237,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9259,13 +9263,13 @@
         <v>105</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9294,10 +9298,10 @@
         <v>211</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>82</v>
@@ -9315,7 +9319,7 @@
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9350,7 +9354,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9376,13 +9380,13 @@
         <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9432,7 +9436,7 @@
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9456,7 +9460,7 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9467,7 +9471,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9490,16 +9494,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9549,7 +9553,7 @@
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9584,7 +9588,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9607,16 +9611,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9666,7 +9670,7 @@
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9687,10 +9691,10 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -9701,7 +9705,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9724,19 +9728,19 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>82</v>
@@ -9785,7 +9789,7 @@
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9806,10 +9810,10 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -9820,7 +9824,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9843,13 +9847,13 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9900,7 +9904,7 @@
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9924,7 +9928,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -9935,7 +9939,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9964,7 +9968,7 @@
         <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>140</v>
@@ -10017,7 +10021,7 @@
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10041,7 +10045,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10052,11 +10056,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10078,10 +10082,10 @@
         <v>137</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>140</v>
@@ -10136,7 +10140,7 @@
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10171,7 +10175,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10194,16 +10198,16 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>210</v>
@@ -10231,13 +10235,13 @@
         <v>82</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>82</v>
@@ -10255,7 +10259,7 @@
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>92</v>
@@ -10273,16 +10277,16 @@
         <v>82</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10290,7 +10294,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10313,19 +10317,19 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>82</v>
@@ -10374,7 +10378,7 @@
         <v>82</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10392,24 +10396,24 @@
         <v>82</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10432,19 +10436,19 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>82</v>
@@ -10472,10 +10476,10 @@
         <v>211</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>82</v>
@@ -10493,7 +10497,7 @@
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10502,7 +10506,7 @@
         <v>92</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>103</v>
@@ -10517,7 +10521,7 @@
         <v>134</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10528,11 +10532,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10551,19 +10555,19 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>82</v>
@@ -10591,10 +10595,10 @@
         <v>211</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>82</v>
@@ -10612,7 +10616,7 @@
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10630,24 +10634,24 @@
         <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10673,16 +10677,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>82</v>
@@ -10731,7 +10735,7 @@
         <v>82</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10752,10 +10756,10 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
